--- a/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/3U3I3I.xlsx
+++ b/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/3U3I3I.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA45116A-EC81-41C5-B35F-F573C2109E1B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AB24BD-FE3F-4164-A24C-702C5B87981D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DSPFeederMap" sheetId="5" r:id="rId1"/>
@@ -735,7 +735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E08379-AB7C-402E-80C0-442430B902D3}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
@@ -1992,8 +1992,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2028,8 +2028,8 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>13</v>
+      <c r="D2" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2042,8 +2042,8 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>14</v>
+      <c r="D3" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2056,8 +2056,8 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>15</v>
+      <c r="D4" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2070,8 +2070,8 @@
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5">
-        <v>16</v>
+      <c r="D5" s="2">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2084,8 +2084,8 @@
       <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6">
-        <v>17</v>
+      <c r="D6" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2098,8 +2098,8 @@
       <c r="C7">
         <v>5</v>
       </c>
-      <c r="D7">
-        <v>18</v>
+      <c r="D7" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2112,8 +2112,8 @@
       <c r="C8">
         <v>6</v>
       </c>
-      <c r="D8">
-        <v>0</v>
+      <c r="D8" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2126,8 +2126,8 @@
       <c r="C9">
         <v>7</v>
       </c>
-      <c r="D9">
-        <v>0</v>
+      <c r="D9" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2140,8 +2140,8 @@
       <c r="C10">
         <v>8</v>
       </c>
-      <c r="D10">
-        <v>0</v>
+      <c r="D10" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
